--- a/SG项目/研发采购/研发采购2017.xlsx
+++ b/SG项目/研发采购/研发采购2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,20 @@
   </si>
   <si>
     <t>三者合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=521125258858&amp;spm=a1z09.2.0.0.1f30a53fVHrGM1&amp;_u=43s1snib8aa</t>
+  </si>
+  <si>
+    <t>逻辑分析仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=521631408046&amp;spm=a1z09.2.0.0.1f30a53fVHrGM1&amp;_u=43s1snie6fa</t>
+  </si>
+  <si>
+    <t>STM32核心板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +450,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -528,10 +542,44 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>20170804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>20170804</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="D11">
         <f>SUM(D3:D10)</f>
-        <v>406.4</v>
+        <v>491.4</v>
       </c>
     </row>
   </sheetData>

--- a/SG项目/研发采购/研发采购2017.xlsx
+++ b/SG项目/研发采购/研发采购2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,13 @@
   </si>
   <si>
     <t>STM32核心板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.95.ebb2eb2WhgWbD&amp;id=19074903212&amp;ns=1&amp;abbucket=3#detail</t>
+  </si>
+  <si>
+    <t>语音合成模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -576,10 +583,36 @@
         <v>20170804</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>20170804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1"/>
+    </row>
     <row r="11" spans="1:6">
-      <c r="D11">
-        <f>SUM(D3:D10)</f>
-        <v>491.4</v>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14">
+        <f>SUM(D3:D13)</f>
+        <v>548.4</v>
       </c>
     </row>
   </sheetData>

--- a/SG项目/研发采购/研发采购2017.xlsx
+++ b/SG项目/研发采购/研发采购2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,28 @@
   </si>
   <si>
     <t>语音合成模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.16.76bf5238Q5sce&amp;id=19703002228&amp;ns=1&amp;abbucket=3#detail</t>
+  </si>
+  <si>
+    <t>压力传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-700935439.34.2f669dfb6vzVLS&amp;id=36462317078</t>
+  </si>
+  <si>
+    <t>AD电路模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD电路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +479,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -601,18 +623,49 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="1"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>20170823</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="1"/>
+      <c r="D12">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14">
         <f>SUM(D3:D13)</f>
-        <v>548.4</v>
+        <v>598.4</v>
       </c>
     </row>
   </sheetData>

--- a/SG项目/研发采购/研发采购2017.xlsx
+++ b/SG项目/研发采购/研发采购2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>AD电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,20 +484,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="96.25" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,13 +511,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -522,11 +533,11 @@
       <c r="D3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20170728</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -536,25 +547,25 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20170728</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>20170728</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -564,14 +575,14 @@
       <c r="D6">
         <v>365.4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20170728</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -584,11 +595,11 @@
       <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20170804</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -601,11 +612,11 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20170804</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -618,11 +629,11 @@
       <c r="D9">
         <v>57</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>20170804</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -636,13 +647,16 @@
         <v>28</v>
       </c>
       <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
         <v>20170823</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -652,20 +666,33 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="B12" s="1"/>
       <c r="D12">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>598.4</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E3:E13)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
